--- a/informatii_email.xlsx
+++ b/informatii_email.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <x:fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A53BD6E-46B1-4763-A6AE-749C79694D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B797642B-ACEC-4FD2-A01C-939B2B5B21EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -75,9 +75,6 @@
     <x:t>print album</x:t>
   </x:si>
   <x:si>
-    <x:t>nu</x:t>
-  </x:si>
-  <x:si>
     <x:t>da</x:t>
   </x:si>
   <x:si>
@@ -124,6 +121,24 @@
   </x:si>
   <x:si>
     <x:t>filmări</x:t>
+  </x:si>
+  <x:si>
+    <x:t>alex m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>alxnmf@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">nuntă </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bucuresti, Bucuresti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14:30-16:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fotograf suplimentar</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -477,10 +492,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J4"/>
+  <x:dimension ref="A1:J5"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="J8" sqref="J8"/>
+      <x:selection activeCell="J4" sqref="J4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,71 +571,103 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
+      <x:c r="E3" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
+      <x:c r="F3" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="G3" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
+      <x:c r="H3" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="I3" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
+      <x:c r="F4" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s">
+      <x:c r="H4" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="H4" s="0" t="s">
+      <x:c r="I4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>19</x:v>
+      <x:c r="B5" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>18</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -736,65 +783,65 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <x:c r="A3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
+      <x:c r="E3" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
+      <x:c r="F3" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="G3" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
+      <x:c r="H3" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <x:c r="A4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
+      <x:c r="F4" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s">
+      <x:c r="H4" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/informatii_email.xlsx
+++ b/informatii_email.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D351AA-9FEE-4200-98AD-8FF9DBFA6E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{46D351AA-9FEE-4200-98AD-8FF9DBFA6E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B1C9EF6-4A7B-4181-89C2-A207BE6F690B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,7 +654,7 @@
         <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>

--- a/informatii_email.xlsx
+++ b/informatii_email.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{46D351AA-9FEE-4200-98AD-8FF9DBFA6E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B1C9EF6-4A7B-4181-89C2-A207BE6F690B}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{46D351AA-9FEE-4200-98AD-8FF9DBFA6E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6695BF9-232A-4E2A-930E-D2916AB36350}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
   <si>
     <t>Nume</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>nu</t>
+  </si>
+  <si>
+    <t>Cod</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,7 +503,7 @@
     <col min="8" max="8" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,8 +534,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -564,7 +570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -596,7 +602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -628,7 +634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>

--- a/informatii_email.xlsx
+++ b/informatii_email.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{46D351AA-9FEE-4200-98AD-8FF9DBFA6E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6695BF9-232A-4E2A-930E-D2916AB36350}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{46D351AA-9FEE-4200-98AD-8FF9DBFA6E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAD9A119-C6F9-451A-BCB9-640EFFC33960}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="47">
   <si>
     <t>Nume</t>
   </si>
@@ -50,6 +50,9 @@
     <t>PDF</t>
   </si>
   <si>
+    <t>Cod</t>
+  </si>
+  <si>
     <t>Alex Mihai</t>
   </si>
   <si>
@@ -101,6 +104,9 @@
     <t>fotograf suplimentar,filmari</t>
   </si>
   <si>
+    <t>nu</t>
+  </si>
+  <si>
     <t>Mihai Popescu</t>
   </si>
   <si>
@@ -140,10 +146,19 @@
     <t>fotograf suplimentar</t>
   </si>
   <si>
-    <t>nu</t>
-  </si>
-  <si>
-    <t>Cod</t>
+    <t>Dacă este posibil, mi-ar plăcea să avem și fotografii în aer liber și un album personalizat</t>
+  </si>
+  <si>
+    <t>20610</t>
+  </si>
+  <si>
+    <t>Caruntu Razvan</t>
+  </si>
+  <si>
+    <t>razvan.caruntu@s.unibuc.ro</t>
+  </si>
+  <si>
+    <t>77014</t>
   </si>
 </sst>
 </file>
@@ -485,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,135 +550,205 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -734,89 +819,89 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/informatii_email.xlsx
+++ b/informatii_email.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_3623D08B67D17BE94179F98F5BADBF5487386AF9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{073B8FA0-0648-42A2-9017-F0853055560F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="62">
   <si>
     <t>Nume</t>
   </si>
@@ -52,33 +53,114 @@
     <t>Cod</t>
   </si>
   <si>
+    <t>Data_adaugare_excel</t>
+  </si>
+  <si>
+    <t>alex m</t>
+  </si>
+  <si>
+    <t>alxnmf@gmail.com</t>
+  </si>
+  <si>
+    <t>0733927265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuntă </t>
+  </si>
+  <si>
+    <t>Bucuresti, Bucuresti</t>
+  </si>
+  <si>
+    <t>5 ianuarie 2025</t>
+  </si>
+  <si>
+    <t>14:30-16:45</t>
+  </si>
+  <si>
+    <t>fotograf suplimentar</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>67033</t>
+  </si>
+  <si>
+    <t>16-01-2025 14:50:42</t>
+  </si>
+  <si>
+    <t>Caruntu Razvan</t>
+  </si>
+  <si>
+    <t>razvancaruntu15@gmail.com</t>
+  </si>
+  <si>
+    <t>075210053000</t>
+  </si>
+  <si>
+    <t>aniversare</t>
+  </si>
+  <si>
+    <t>Casa Rebecca, Bacau</t>
+  </si>
+  <si>
+    <t>06/09/2025</t>
+  </si>
+  <si>
+    <t>18:00-20:30</t>
+  </si>
+  <si>
+    <t>73439</t>
+  </si>
+  <si>
+    <t>16-01-2025 20:52:40</t>
+  </si>
+  <si>
+    <t>62650</t>
+  </si>
+  <si>
+    <t>16-01-2025 21:06:36</t>
+  </si>
+  <si>
+    <t>38620</t>
+  </si>
+  <si>
+    <t>16-01-2025 21:06:41</t>
+  </si>
+  <si>
+    <t>16728</t>
+  </si>
+  <si>
+    <t>16-01-2025 21:07:47</t>
+  </si>
+  <si>
+    <t>31184</t>
+  </si>
+  <si>
+    <t>16-01-2025 21:19:12</t>
+  </si>
+  <si>
+    <t>80871</t>
+  </si>
+  <si>
+    <t>16-01-2025 21:20:46</t>
+  </si>
+  <si>
     <t>Alex Mihai</t>
   </si>
   <si>
     <t>am.photography611@gmail.com</t>
   </si>
   <si>
-    <t>0733927265</t>
-  </si>
-  <si>
-    <t>aniversare</t>
-  </si>
-  <si>
     <t>Trickshot Promenada, Bucuresti</t>
   </si>
   <si>
-    <t>5 ianuarie 2025</t>
-  </si>
-  <si>
     <t>14:30-16:30</t>
   </si>
   <si>
     <t>print album</t>
   </si>
   <si>
-    <t>da</t>
-  </si>
-  <si>
     <t>Maria Popescu</t>
   </si>
   <si>
@@ -122,75 +204,12 @@
   </si>
   <si>
     <t>filmări</t>
-  </si>
-  <si>
-    <t>alex m</t>
-  </si>
-  <si>
-    <t>alxnmf@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nuntă </t>
-  </si>
-  <si>
-    <t>Bucuresti, Bucuresti</t>
-  </si>
-  <si>
-    <t>14:30-16:45</t>
-  </si>
-  <si>
-    <t>fotograf suplimentar</t>
-  </si>
-  <si>
-    <t>20610</t>
-  </si>
-  <si>
-    <t>Caruntu Razvan</t>
-  </si>
-  <si>
-    <t>razvan.caruntu@s.unibuc.ro</t>
-  </si>
-  <si>
-    <t>nu</t>
-  </si>
-  <si>
-    <t>77014</t>
-  </si>
-  <si>
-    <t>razvancaruntu15@gmail.com</t>
-  </si>
-  <si>
-    <t>075210053000</t>
-  </si>
-  <si>
-    <t>Casa Rebecca, Bacau</t>
-  </si>
-  <si>
-    <t>06/09/2025</t>
-  </si>
-  <si>
-    <t>18:00-20:30</t>
-  </si>
-  <si>
-    <t>47814</t>
-  </si>
-  <si>
-    <t>63219</t>
-  </si>
-  <si>
-    <t>fotograf suplimentar,album</t>
-  </si>
-  <si>
-    <t>filmari, print album</t>
-  </si>
-  <si>
-    <t>17:21-00:53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,9 +259,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -280,9 +299,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,7 +336,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,7 +371,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -525,11 +544,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,9 +561,11 @@
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.21875" customWidth="1"/>
     <col min="8" max="8" width="18.77734375" customWidth="1"/>
+    <col min="9" max="11" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,142 +599,259 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -734,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -746,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -784,89 +922,89 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
